--- a/Variables to be collected - RPDR.xlsx
+++ b/Variables to be collected - RPDR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Michelle/Desktop/Research with Bex/RPDR/Data Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Michelle/Desktop/Research with Becca/RPDR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3389FB0D-2C8C-FD4F-9961-FF93DB912024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61956E6E-CAFE-7D43-945E-8943E7593EDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2980" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable Definition" sheetId="1" r:id="rId1"/>
@@ -711,11 +711,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -16062,13 +16062,13 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12">
+      <c r="A24" s="14">
         <v>23</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="14">
         <v>3</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D24" s="8">
@@ -17090,13 +17090,13 @@
       </c>
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="12">
+      <c r="A46" s="14">
         <v>44</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="14">
         <v>4</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D46" s="8">
@@ -19011,13 +19011,13 @@
       </c>
     </row>
     <row r="87" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="12">
+      <c r="A87" s="14">
         <v>84</v>
       </c>
-      <c r="B87" s="12">
+      <c r="B87" s="14">
         <v>7</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C87" s="12" t="s">
         <v>120</v>
       </c>
       <c r="D87" s="8">
@@ -19475,13 +19475,13 @@
       </c>
     </row>
     <row r="97" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="12">
+      <c r="A97" s="14">
         <v>93</v>
       </c>
-      <c r="B97" s="12">
+      <c r="B97" s="14">
         <v>8</v>
       </c>
-      <c r="C97" s="14" t="s">
+      <c r="C97" s="12" t="s">
         <v>129</v>
       </c>
       <c r="D97" s="8">
@@ -22807,18 +22807,18 @@
     <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="C87:C88"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="C87:C88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
